--- a/ConsecrationDemo/Configs/Altars.xlsx
+++ b/ConsecrationDemo/Configs/Altars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9931E5B-57FB-44A5-9069-B2FC6F1471AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D3F502-3552-4FC8-806F-3EC245E28AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="6300" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20310" yWindow="4455" windowWidth="21360" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>祭坛名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图腾图片配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,13 +65,49 @@
   <si>
     <t>愤怒</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排挤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引诱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讥讽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +119,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,27 +447,23 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -437,16 +471,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -459,16 +490,13 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10001</v>
@@ -476,8 +504,131 @@
       <c r="D4">
         <v>10002</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>60002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10003</v>
+      </c>
+      <c r="D5">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>60003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>10005</v>
+      </c>
+      <c r="D6">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>10007</v>
+      </c>
+      <c r="D7">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>60005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>10009</v>
+      </c>
+      <c r="D8">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>60006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>10011</v>
+      </c>
+      <c r="D9">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>60007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>10013</v>
+      </c>
+      <c r="D10">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>60008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>10015</v>
+      </c>
+      <c r="D11">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>60009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>10017</v>
+      </c>
+      <c r="D12">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>60010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>10019</v>
+      </c>
+      <c r="D13">
+        <v>10020</v>
       </c>
     </row>
   </sheetData>
